--- a/Task3_Term-Project-Analysis/data/clean/variables.xlsx
+++ b/Task3_Term-Project-Analysis/data/clean/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cosmi\Documents\homework_codesANDmore_Coding1_MScBA\Task3_Term-Project-Analysis\data\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDA4D2C-8542-4386-8D67-B284EF5E0B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079EE303-4351-4295-8E92-C1A2580F50DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1620" windowWidth="18000" windowHeight="12672" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="office_survey" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
   <si>
     <t>Variable</t>
   </si>
@@ -64,9 +64,6 @@
     <t>familiar_risks</t>
   </si>
   <si>
-    <t>safety_mission_engagement</t>
-  </si>
-  <si>
     <t>Binary</t>
   </si>
   <si>
@@ -100,27 +97,6 @@
     <t>not_familiar_risks</t>
   </si>
   <si>
-    <t>hazards_reviewed</t>
-  </si>
-  <si>
-    <t>Whether the respondent is very familiar with the risks in the workplace (baseline is at "no response")</t>
-  </si>
-  <si>
-    <t>Whether the respondent is familiar with the risks in the workplace (baseline is at "no response")</t>
-  </si>
-  <si>
-    <t>Whether the respondent is somewhat familiar with the risks in the workplace (baseline is at "no response")</t>
-  </si>
-  <si>
-    <t>Whether the respondent is not familiar with the risks in the workplace (baseline is at "no response")</t>
-  </si>
-  <si>
-    <t>Whether the respondent feels safe in the office (baseline is at "no response")</t>
-  </si>
-  <si>
-    <t>Whether the respondent does not feel safe in the office (baseline is at "no response")</t>
-  </si>
-  <si>
     <t>manufacturing</t>
   </si>
   <si>
@@ -142,22 +118,124 @@
     <t>All values of 1 represent "Yes" and 0 represents "No" for their respective variables.</t>
   </si>
   <si>
-    <t>Signifies the manufacturing work environment the respondent is in (baseline is at "Services" work environment)</t>
-  </si>
-  <si>
-    <t>Signifies the project work environment the respondent is in (baseline is at "Services" work environment)</t>
-  </si>
-  <si>
-    <t>Whether the respondent has frequent toolbox talks (baseline is at "Never" frequency of toolbox talks)</t>
-  </si>
-  <si>
-    <t>Whether the respondent has very frequent toolbox talks (baseline is at "Never" frequency of toolbox talks)</t>
-  </si>
-  <si>
-    <t>Whether the respondent has occasional toolbox talks (baseline is at "Never" frequency of toolbox talks)</t>
-  </si>
-  <si>
-    <t>Whether the respondent has toolbox talks before every job task (baseline is at "Never" frequency of toolbox talks)</t>
+    <t>safe_office</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Whether the respondent feels safe in the office</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>office_hazards_reviewed</t>
+  </si>
+  <si>
+    <t>Qualitative, ordinal</t>
+  </si>
+  <si>
+    <t>How familiar the respondent is with the risks in their work environment (on a Likert scale)</t>
+  </si>
+  <si>
+    <t>Somewhat familiar</t>
+  </si>
+  <si>
+    <t>office_familiar_risks</t>
+  </si>
+  <si>
+    <t>office_safety_mission_engagement</t>
+  </si>
+  <si>
+    <t>hazards</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>no_response_risks</t>
+  </si>
+  <si>
+    <t>Whether the respondent is not familiar with the risks in the workplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the respondent is somewhat familiar with the risks in the workplace </t>
+  </si>
+  <si>
+    <t>Whether the respondent is familiar with the risks in the workplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the respondent is very familiar with the risks in the workplace </t>
+  </si>
+  <si>
+    <t>Whether the respondent does not feel safe in the office</t>
+  </si>
+  <si>
+    <t>Whether the respondent did not answer whether they are familiar with the risks in the workplace</t>
+  </si>
+  <si>
+    <t>noresponse_safe_office</t>
+  </si>
+  <si>
+    <t>Whether the respondent did not answer whether they feel safe in the office</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>Qualitative, nominal</t>
+  </si>
+  <si>
+    <t>Signifies which work environment the respondent is in</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>toolbox_talks</t>
+  </si>
+  <si>
+    <t>How often the respondent has toolbox talks with their team (on a Likert scale)</t>
+  </si>
+  <si>
+    <t>Very frequently</t>
+  </si>
+  <si>
+    <t>never_talks</t>
+  </si>
+  <si>
+    <t>routine</t>
+  </si>
+  <si>
+    <t>rush</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>Signifies the services work environment the respondent is in</t>
+  </si>
+  <si>
+    <t>Signifies the project work environment the respondent is in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the respondent has frequent toolbox talks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the respondent has very frequent toolbox talks </t>
+  </si>
+  <si>
+    <t>Whether the respondent has occasional toolbox talks</t>
+  </si>
+  <si>
+    <t>Whether the respondent has toolbox talks before every job task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signifies the manufacturing work environment the respondent is in </t>
+  </si>
+  <si>
+    <t>Whether the respondent never has toolbox talks</t>
   </si>
 </sst>
 </file>
@@ -541,15 +619,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.21875" bestFit="1" customWidth="1"/>
@@ -579,16 +657,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -599,16 +677,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -619,16 +697,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -639,16 +717,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -659,16 +737,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -679,16 +757,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -699,16 +777,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -719,16 +797,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -738,27 +816,138 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="F12" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -767,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14987738-1AF9-4C71-B54B-2F5009BFE0E4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,16 +994,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -825,16 +1014,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -845,16 +1034,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -865,16 +1054,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -885,16 +1074,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -905,16 +1094,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -925,16 +1114,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -945,37 +1134,157 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
